--- a/docs/0.1.0/StructureDefinition-alvearie-patient.xlsx
+++ b/docs/0.1.0/StructureDefinition-alvearie-patient.xlsx
@@ -197,7 +197,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://alvearie.io/fhir/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -347,7 +347,7 @@
     <t>familyId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/family-id}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/family-id}
 </t>
   </si>
   <si>
@@ -410,7 +410,7 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/status-code}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/status-code}
 </t>
   </si>
   <si>
@@ -501,13 +501,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://alvearie.github.io/alvearie-fhir-ig/ValueSet/patient-importance</t>
+    <t>http://alvearie.io/fhir/ValueSet/patient-importance</t>
   </si>
   <si>
     <t>sexAssignedAtBirth</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/sex-assigned-at-birth}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/sex-assigned-at-birth}
 </t>
   </si>
   <si>
@@ -517,7 +517,7 @@
     <t>communicationOptOut</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/communication-opt-out}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/communication-opt-out}
 </t>
   </si>
   <si>
@@ -550,7 +550,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/alvearie-identifier}
+    <t xml:space="preserve">Identifier {http://alvearie.io/fhir/StructureDefinition/alvearie-identifier}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>encryptedState</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/encrypted-state}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/encrypted-state}
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://alvearie.github.io/alvearie-fhir-ig/ValueSet/identifier-type</t>
+    <t>http://alvearie.io/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -802,7 +802,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/alvearie-contact-point}
+    <t xml:space="preserve">ContactPoint {http://alvearie.io/fhir/StructureDefinition/alvearie-contact-point}
 </t>
   </si>
   <si>
@@ -914,7 +914,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/alvearie-address}
+    <t xml:space="preserve">Address {http://alvearie.io/fhir/StructureDefinition/alvearie-address}
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
     <t>languageRank</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/language-rank}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/language-rank}
 </t>
   </si>
   <si>
@@ -1253,7 +1253,7 @@
     <t>Patient.generalPractitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole) {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/reference-with-code-and-period}
+    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole) {http://alvearie.io/fhir/StructureDefinition/reference-with-code-and-period}
 </t>
   </si>
   <si>
@@ -1532,7 +1532,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="78.75" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
